--- a/migrations_django/migrations.xlsx
+++ b/migrations_django/migrations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,16 @@
           <t>MIGRATION_PATH</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SQL_MIGRATION</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>SQL_MIGRATION_PATH</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -473,7 +483,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>.\users\migrations</t>
+          <t>D:\codes\Python\projetolabapidjango\users\migrations</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BEGIN;
+--
+-- Create model User
+--
+CREATE TABLE "users_user" ("id" integer NOT NULL PRIMARY KEY AUTOINCREMENT, "active" bool NOT NULL, "name" varchar(200) NOT NULL, "email" varchar(200) NOT NULL UNIQUE, "password" varchar(30) NOT NULL);
+COMMIT;
+</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>./migrations_django\users\users_0001_initial.sql</t>
         </is>
       </c>
     </row>
@@ -495,7 +521,36 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>.\bank\migrations</t>
+          <t>D:\codes\Python\projetolabapidjango\bank\migrations</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BEGIN;
+--
+-- Create model Account
+--
+CREATE TABLE "bank_account" ("number" integer NOT NULL UNIQUE, "id" integer NOT NULL PRIMARY KEY AUTOINCREMENT, "active" bool NOT NULL, "balance" decimal NOT NULL, "user_id" bigint NULL UNIQUE REFERENCES "users_user" ("id") DEFERRABLE INITIALLY DEFERRED);
+--
+-- Create model KeyPix
+--
+CREATE TABLE "bank_keypix" ("id" integer NOT NULL PRIMARY KEY AUTOINCREMENT, "active" bool NOT NULL, "key" varchar(255) NOT NULL, "type_key" varchar(16) NOT NULL, "account_id" bigint NOT NULL REFERENCES "bank_account" ("id") DEFERRABLE INITIALLY DEFERRED);
+--
+-- Create model Agency
+--
+CREATE TABLE "bank_agency" ("number" integer NOT NULL UNIQUE, "id" integer NOT NULL PRIMARY KEY AUTOINCREMENT, "active" bool NOT NULL);
+CREATE TABLE "bank_agency_accounts" ("id" integer NOT NULL PRIMARY KEY AUTOINCREMENT, "agency_id" bigint NOT NULL REFERENCES "bank_agency" ("id") DEFERRABLE INITIALLY DEFERRED, "account_id" bigint NOT NULL REFERENCES "bank_account" ("id") DEFERRABLE INITIALLY DEFERRED);
+CREATE INDEX "bank_keypix_account_id_7ebba0ed" ON "bank_keypix" ("account_id");
+CREATE UNIQUE INDEX "bank_agency_accounts_agency_id_account_id_5ead26b4_uniq" ON "bank_agency_accounts" ("agency_id", "account_id");
+CREATE INDEX "bank_agency_accounts_agency_id_48f3eb15" ON "bank_agency_accounts" ("agency_id");
+CREATE INDEX "bank_agency_accounts_account_id_9d9f6243" ON "bank_agency_accounts" ("account_id");
+COMMIT;
+</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>./migrations_django\bank\bank_0001_initial.sql</t>
         </is>
       </c>
     </row>
